--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il17c-Il17re.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il17c-Il17re.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il17c</t>
   </si>
   <si>
     <t>Il17re</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.368369648669556</v>
+        <v>0.8163016666666666</v>
       </c>
       <c r="H2">
-        <v>0.368369648669556</v>
+        <v>2.448905</v>
       </c>
       <c r="I2">
-        <v>0.1469396663605372</v>
+        <v>0.2413881986261334</v>
       </c>
       <c r="J2">
-        <v>0.1469396663605372</v>
+        <v>0.2413881986261334</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.175209420942342</v>
+        <v>0.261563</v>
       </c>
       <c r="N2">
-        <v>0.175209420942342</v>
+        <v>0.784689</v>
       </c>
       <c r="O2">
-        <v>0.5971944747465321</v>
+        <v>0.6814079908299105</v>
       </c>
       <c r="P2">
-        <v>0.5971944747465321</v>
+        <v>0.6814079908299104</v>
       </c>
       <c r="Q2">
-        <v>0.06454183283612687</v>
+        <v>0.2135143128383333</v>
       </c>
       <c r="R2">
-        <v>0.06454183283612687</v>
+        <v>1.921628815545</v>
       </c>
       <c r="S2">
-        <v>0.08775155687161167</v>
+        <v>0.1644838474358849</v>
       </c>
       <c r="T2">
-        <v>0.08775155687161167</v>
+        <v>0.1644838474358849</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.368369648669556</v>
+        <v>0.8163016666666666</v>
       </c>
       <c r="H3">
-        <v>0.368369648669556</v>
+        <v>2.448905</v>
       </c>
       <c r="I3">
-        <v>0.1469396663605372</v>
+        <v>0.2413881986261334</v>
       </c>
       <c r="J3">
-        <v>0.1469396663605372</v>
+        <v>0.2413881986261334</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.118178124239998</v>
+        <v>0.001721</v>
       </c>
       <c r="N3">
-        <v>0.118178124239998</v>
+        <v>0.005163</v>
       </c>
       <c r="O3">
-        <v>0.4028055252534679</v>
+        <v>0.004483444341203749</v>
       </c>
       <c r="P3">
-        <v>0.4028055252534679</v>
+        <v>0.004483444341203748</v>
       </c>
       <c r="Q3">
-        <v>0.0435332341067152</v>
+        <v>0.001404855168333333</v>
       </c>
       <c r="R3">
-        <v>0.0435332341067152</v>
+        <v>0.012643696515</v>
       </c>
       <c r="S3">
-        <v>0.0591881094889255</v>
+        <v>0.001082250553163704</v>
       </c>
       <c r="T3">
-        <v>0.0591881094889255</v>
+        <v>0.001082250553163704</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.07523222242629</v>
+        <v>0.8163016666666666</v>
       </c>
       <c r="H4">
-        <v>1.07523222242629</v>
+        <v>2.448905</v>
       </c>
       <c r="I4">
-        <v>0.4289014162650134</v>
+        <v>0.2413881986261334</v>
       </c>
       <c r="J4">
-        <v>0.4289014162650134</v>
+        <v>0.2413881986261334</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.175209420942342</v>
+        <v>0.1205726666666667</v>
       </c>
       <c r="N4">
-        <v>0.175209420942342</v>
+        <v>0.361718</v>
       </c>
       <c r="O4">
-        <v>0.5971944747465321</v>
+        <v>0.3141085648288858</v>
       </c>
       <c r="P4">
-        <v>0.5971944747465321</v>
+        <v>0.3141085648288858</v>
       </c>
       <c r="Q4">
-        <v>0.1883908150698577</v>
+        <v>0.09842366875444444</v>
       </c>
       <c r="R4">
-        <v>0.1883908150698577</v>
+        <v>0.8858130187900001</v>
       </c>
       <c r="S4">
-        <v>0.2561375560044284</v>
+        <v>0.07582210063708479</v>
       </c>
       <c r="T4">
-        <v>0.2561375560044284</v>
+        <v>0.0758221006370848</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.07523222242629</v>
+        <v>1.210478333333333</v>
       </c>
       <c r="H5">
-        <v>1.07523222242629</v>
+        <v>3.631435</v>
       </c>
       <c r="I5">
-        <v>0.4289014162650134</v>
+        <v>0.3579500034006598</v>
       </c>
       <c r="J5">
-        <v>0.4289014162650134</v>
+        <v>0.3579500034006599</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.118178124239998</v>
+        <v>0.261563</v>
       </c>
       <c r="N5">
-        <v>0.118178124239998</v>
+        <v>0.784689</v>
       </c>
       <c r="O5">
-        <v>0.4028055252534679</v>
+        <v>0.6814079908299105</v>
       </c>
       <c r="P5">
-        <v>0.4028055252534679</v>
+        <v>0.6814079908299104</v>
       </c>
       <c r="Q5">
-        <v>0.1270689271687433</v>
+        <v>0.3166163443016666</v>
       </c>
       <c r="R5">
-        <v>0.1270689271687433</v>
+        <v>2.849547098715</v>
       </c>
       <c r="S5">
-        <v>0.172763860260585</v>
+        <v>0.2439099926348032</v>
       </c>
       <c r="T5">
-        <v>0.172763860260585</v>
+        <v>0.2439099926348032</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.06334303897159</v>
+        <v>1.210478333333333</v>
       </c>
       <c r="H6">
-        <v>1.06334303897159</v>
+        <v>3.631435</v>
       </c>
       <c r="I6">
-        <v>0.4241589173744493</v>
+        <v>0.3579500034006598</v>
       </c>
       <c r="J6">
-        <v>0.4241589173744493</v>
+        <v>0.3579500034006599</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.175209420942342</v>
+        <v>0.001721</v>
       </c>
       <c r="N6">
-        <v>0.175209420942342</v>
+        <v>0.005163</v>
       </c>
       <c r="O6">
-        <v>0.5971944747465321</v>
+        <v>0.004483444341203749</v>
       </c>
       <c r="P6">
-        <v>0.5971944747465321</v>
+        <v>0.004483444341203748</v>
       </c>
       <c r="Q6">
-        <v>0.1863077181212825</v>
+        <v>0.002083233211666667</v>
       </c>
       <c r="R6">
-        <v>0.1863077181212825</v>
+        <v>0.018749098905</v>
       </c>
       <c r="S6">
-        <v>0.253305361870492</v>
+        <v>0.001604848917180551</v>
       </c>
       <c r="T6">
-        <v>0.253305361870492</v>
+        <v>0.001604848917180551</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.210478333333333</v>
+      </c>
+      <c r="H7">
+        <v>3.631435</v>
+      </c>
+      <c r="I7">
+        <v>0.3579500034006598</v>
+      </c>
+      <c r="J7">
+        <v>0.3579500034006599</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.1205726666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.361718</v>
+      </c>
+      <c r="O7">
+        <v>0.3141085648288858</v>
+      </c>
+      <c r="P7">
+        <v>0.3141085648288858</v>
+      </c>
+      <c r="Q7">
+        <v>0.1459506005922222</v>
+      </c>
+      <c r="R7">
+        <v>1.31355540533</v>
+      </c>
+      <c r="S7">
+        <v>0.1124351618486761</v>
+      </c>
+      <c r="T7">
+        <v>0.1124351618486761</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.210812666666667</v>
+      </c>
+      <c r="H8">
+        <v>3.632438</v>
+      </c>
+      <c r="I8">
+        <v>0.3580488689602556</v>
+      </c>
+      <c r="J8">
+        <v>0.3580488689602557</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.261563</v>
+      </c>
+      <c r="N8">
+        <v>0.784689</v>
+      </c>
+      <c r="O8">
+        <v>0.6814079908299105</v>
+      </c>
+      <c r="P8">
+        <v>0.6814079908299104</v>
+      </c>
+      <c r="Q8">
+        <v>0.3167037935313333</v>
+      </c>
+      <c r="R8">
+        <v>2.850334141782</v>
+      </c>
+      <c r="S8">
+        <v>0.2439773604171297</v>
+      </c>
+      <c r="T8">
+        <v>0.2439773604171297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.210812666666667</v>
+      </c>
+      <c r="H9">
+        <v>3.632438</v>
+      </c>
+      <c r="I9">
+        <v>0.3580488689602556</v>
+      </c>
+      <c r="J9">
+        <v>0.3580488689602557</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.001721</v>
+      </c>
+      <c r="N9">
+        <v>0.005163</v>
+      </c>
+      <c r="O9">
+        <v>0.004483444341203749</v>
+      </c>
+      <c r="P9">
+        <v>0.004483444341203748</v>
+      </c>
+      <c r="Q9">
+        <v>0.002083808599333334</v>
+      </c>
+      <c r="R9">
+        <v>0.018754277394</v>
+      </c>
+      <c r="S9">
+        <v>0.001605292175414261</v>
+      </c>
+      <c r="T9">
+        <v>0.001605292175414261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.210812666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.632438</v>
+      </c>
+      <c r="I10">
+        <v>0.3580488689602556</v>
+      </c>
+      <c r="J10">
+        <v>0.3580488689602557</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.1205726666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.361718</v>
+      </c>
+      <c r="O10">
+        <v>0.3141085648288858</v>
+      </c>
+      <c r="P10">
+        <v>0.3141085648288858</v>
+      </c>
+      <c r="Q10">
+        <v>0.1459909120537778</v>
+      </c>
+      <c r="R10">
+        <v>1.313918208484</v>
+      </c>
+      <c r="S10">
+        <v>0.1124662163677117</v>
+      </c>
+      <c r="T10">
+        <v>0.1124662163677117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.06334303897159</v>
-      </c>
-      <c r="H7">
-        <v>1.06334303897159</v>
-      </c>
-      <c r="I7">
-        <v>0.4241589173744493</v>
-      </c>
-      <c r="J7">
-        <v>0.4241589173744493</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.118178124239998</v>
-      </c>
-      <c r="N7">
-        <v>0.118178124239998</v>
-      </c>
-      <c r="O7">
-        <v>0.4028055252534679</v>
-      </c>
-      <c r="P7">
-        <v>0.4028055252534679</v>
-      </c>
-      <c r="Q7">
-        <v>0.1256638857693216</v>
-      </c>
-      <c r="R7">
-        <v>0.1256638857693216</v>
-      </c>
-      <c r="S7">
-        <v>0.1708535555039573</v>
-      </c>
-      <c r="T7">
-        <v>0.1708535555039573</v>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.144104</v>
+      </c>
+      <c r="H11">
+        <v>0.432312</v>
+      </c>
+      <c r="I11">
+        <v>0.04261292901295109</v>
+      </c>
+      <c r="J11">
+        <v>0.0426129290129511</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.261563</v>
+      </c>
+      <c r="N11">
+        <v>0.784689</v>
+      </c>
+      <c r="O11">
+        <v>0.6814079908299105</v>
+      </c>
+      <c r="P11">
+        <v>0.6814079908299104</v>
+      </c>
+      <c r="Q11">
+        <v>0.037692274552</v>
+      </c>
+      <c r="R11">
+        <v>0.339230470968</v>
+      </c>
+      <c r="S11">
+        <v>0.02903679034209261</v>
+      </c>
+      <c r="T11">
+        <v>0.02903679034209261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.144104</v>
+      </c>
+      <c r="H12">
+        <v>0.432312</v>
+      </c>
+      <c r="I12">
+        <v>0.04261292901295109</v>
+      </c>
+      <c r="J12">
+        <v>0.0426129290129511</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.001721</v>
+      </c>
+      <c r="N12">
+        <v>0.005163</v>
+      </c>
+      <c r="O12">
+        <v>0.004483444341203749</v>
+      </c>
+      <c r="P12">
+        <v>0.004483444341203748</v>
+      </c>
+      <c r="Q12">
+        <v>0.000248002984</v>
+      </c>
+      <c r="R12">
+        <v>0.002232026856</v>
+      </c>
+      <c r="S12">
+        <v>0.0001910526954452326</v>
+      </c>
+      <c r="T12">
+        <v>0.0001910526954452326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.144104</v>
+      </c>
+      <c r="H13">
+        <v>0.432312</v>
+      </c>
+      <c r="I13">
+        <v>0.04261292901295109</v>
+      </c>
+      <c r="J13">
+        <v>0.0426129290129511</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.1205726666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.361718</v>
+      </c>
+      <c r="O13">
+        <v>0.3141085648288858</v>
+      </c>
+      <c r="P13">
+        <v>0.3141085648288858</v>
+      </c>
+      <c r="Q13">
+        <v>0.01737500355733334</v>
+      </c>
+      <c r="R13">
+        <v>0.156375032016</v>
+      </c>
+      <c r="S13">
+        <v>0.01338508597541326</v>
+      </c>
+      <c r="T13">
+        <v>0.01338508597541326</v>
       </c>
     </row>
   </sheetData>
